--- a/data/trans_orig/P23_1_2016_2023_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>139106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119100</v>
+        <v>118708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161528</v>
+        <v>159957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2061434623057192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.176496752053444</v>
+        <v>0.1759160983997992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2393712786246026</v>
+        <v>0.2370438503053646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -763,19 +763,19 @@
         <v>65169</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51241</v>
+        <v>50671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82286</v>
+        <v>82291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.097017292966685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07628255340614634</v>
+        <v>0.07543315165892019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1224988520500097</v>
+        <v>0.1225057014826188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -784,19 +784,19 @@
         <v>204275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178325</v>
+        <v>177593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229085</v>
+        <v>233637</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1517047799195304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1324330498333384</v>
+        <v>0.1318892745313514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1701299562341475</v>
+        <v>0.1735107524905584</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>535694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>513272</v>
+        <v>514843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>555700</v>
+        <v>556092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7938565376942808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7606287213753974</v>
+        <v>0.7629561496946354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.823503247946556</v>
+        <v>0.8240839016002007</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>600</v>
@@ -834,19 +834,19 @@
         <v>606561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>589444</v>
+        <v>589439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>620489</v>
+        <v>621059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.902982707033315</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8775011479499902</v>
+        <v>0.8774942985173809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9237174465938536</v>
+        <v>0.9245668483410797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1117</v>
@@ -855,19 +855,19 @@
         <v>1142255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1117445</v>
+        <v>1112893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1168205</v>
+        <v>1168937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8482952200804696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8298700437658523</v>
+        <v>0.8264892475094416</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8675669501666616</v>
+        <v>0.8681107254686491</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>217585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>193765</v>
+        <v>189413</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244014</v>
+        <v>245095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2130351466977045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1897131797455499</v>
+        <v>0.185452240213608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2389113731975087</v>
+        <v>0.2399697885435074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -980,19 +980,19 @@
         <v>104928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82723</v>
+        <v>86898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123206</v>
+        <v>125778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.100700280229377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0793899708667192</v>
+        <v>0.08339635473738133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1182418192372347</v>
+        <v>0.120710371974841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>307</v>
@@ -1001,19 +1001,19 @@
         <v>322514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>290550</v>
+        <v>290410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>357143</v>
+        <v>356318</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1563062342834246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1408148794436315</v>
+        <v>0.1407473075383846</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1730894887361411</v>
+        <v>0.1726896328682245</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>803774</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>777345</v>
+        <v>776264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>827594</v>
+        <v>831946</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7869648533022955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7610886268024912</v>
+        <v>0.7600302114564926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8102868202544492</v>
+        <v>0.814547759786392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>875</v>
@@ -1051,19 +1051,19 @@
         <v>937057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918779</v>
+        <v>916207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959262</v>
+        <v>955087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8992997197706231</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8817581807627654</v>
+        <v>0.8792896280251591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9206100291332803</v>
+        <v>0.9166036452626187</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1619</v>
@@ -1072,19 +1072,19 @@
         <v>1740830</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1706201</v>
+        <v>1707026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1772794</v>
+        <v>1772934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8436937657165754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8269105112638586</v>
+        <v>0.8273103671317755</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8591851205563683</v>
+        <v>0.8592526924616154</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>144517</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122822</v>
+        <v>123352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169581</v>
+        <v>167232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.190482981828669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1618876875262325</v>
+        <v>0.1625864011210591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2235181803651868</v>
+        <v>0.2204228513247259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1197,19 +1197,19 @@
         <v>82166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66589</v>
+        <v>64675</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100626</v>
+        <v>102460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1049516641247674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08505513871307102</v>
+        <v>0.0826106538864778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1285308596080929</v>
+        <v>0.1308729801327816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>215</v>
@@ -1218,19 +1218,19 @@
         <v>226683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198984</v>
+        <v>197370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255943</v>
+        <v>255176</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1470457873054004</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1290775895423565</v>
+        <v>0.1280309808185365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1660264796676358</v>
+        <v>0.1655283967995796</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>614171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589107</v>
+        <v>591456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635866</v>
+        <v>635336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8095170181713309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7764818196348133</v>
+        <v>0.7795771486752742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8381123124737675</v>
+        <v>0.837413598878941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>655</v>
@@ -1268,19 +1268,19 @@
         <v>700729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682269</v>
+        <v>680435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>716306</v>
+        <v>718220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8950483358752326</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8714691403919073</v>
+        <v>0.8691270198672184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.914944861286929</v>
+        <v>0.9173893461135222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1214</v>
@@ -1289,19 +1289,19 @@
         <v>1314899</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1285639</v>
+        <v>1286406</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1342598</v>
+        <v>1344212</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8529542126945996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8339735203323642</v>
+        <v>0.8344716032004202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8709224104576435</v>
+        <v>0.8719690191814624</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>202073</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178648</v>
+        <v>178474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227417</v>
+        <v>228655</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2155290552166848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.190544781454065</v>
+        <v>0.1903581342695203</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2425603757984782</v>
+        <v>0.2438810209556475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -1414,19 +1414,19 @@
         <v>134916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112446</v>
+        <v>111974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160083</v>
+        <v>158377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1294163018436399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1078626200722456</v>
+        <v>0.1074093248222362</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1535580011775889</v>
+        <v>0.1519213140956111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>324</v>
@@ -1435,19 +1435,19 @@
         <v>336989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>304819</v>
+        <v>302859</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>371419</v>
+        <v>371197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.170191053421774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1539442477998571</v>
+        <v>0.1529542310363783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1875797489385182</v>
+        <v>0.1874675002570406</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>735494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>710150</v>
+        <v>708912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>758919</v>
+        <v>759093</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7844709447833151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.757439624201522</v>
+        <v>0.7561189790443525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8094552185459351</v>
+        <v>0.8096418657304797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>838</v>
@@ -1485,19 +1485,19 @@
         <v>907578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>882411</v>
+        <v>884117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>930048</v>
+        <v>930520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8705836981563602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8464419988224109</v>
+        <v>0.8480786859043887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8921373799277543</v>
+        <v>0.8925906751777638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1566</v>
@@ -1506,19 +1506,19 @@
         <v>1643072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608642</v>
+        <v>1608864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1675242</v>
+        <v>1677202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.829808946578226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8124202510614814</v>
+        <v>0.8125324997429594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8460557522001425</v>
+        <v>0.8470457689636216</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>703281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>365</v>
@@ -1631,19 +1631,19 @@
         <v>387179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1046</v>
@@ -1652,19 +1652,19 @@
         <v>1090460</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2689133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2643353</v>
+        <v>2638177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2739386</v>
+        <v>2735669</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7926900841476729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7791954095055762</v>
+        <v>0.777669669070675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8075033049140935</v>
+        <v>0.8064077844574894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2968</v>
@@ -1702,19 +1702,19 @@
         <v>3151924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3111287</v>
+        <v>3112499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3188086</v>
+        <v>3190720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8905995844993999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8791173424258593</v>
+        <v>0.879459832249416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9008176507793918</v>
+        <v>0.9015617489561615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5516</v>
@@ -1723,19 +1723,19 @@
         <v>5841057</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5779552</v>
+        <v>5768435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5903973</v>
+        <v>5900811</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.842680849770891</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8338077236276359</v>
+        <v>0.8322037633760674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8517577547789049</v>
+        <v>0.8513015049722087</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>122827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106481</v>
+        <v>105048</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143154</v>
+        <v>144067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1781058783496083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1544036337066923</v>
+        <v>0.1523250831918999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2075815989002767</v>
+        <v>0.2089059272603644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -2088,19 +2088,19 @@
         <v>52856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41245</v>
+        <v>42496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64390</v>
+        <v>66604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07209739090446549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0562605171145695</v>
+        <v>0.05796697425604359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08783078326259838</v>
+        <v>0.09085097085675831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -2109,19 +2109,19 @@
         <v>175682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>155011</v>
+        <v>155451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201001</v>
+        <v>200180</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1234815838513894</v>
+        <v>0.1234815838513895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1089525565590491</v>
+        <v>0.1092619527179229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1412769555055822</v>
+        <v>0.1406999959312015</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>566801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>546474</v>
+        <v>545561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>583147</v>
+        <v>584580</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8218941216503917</v>
+        <v>0.8218941216503919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7924184010997231</v>
+        <v>0.7910940727396356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8455963662933074</v>
+        <v>0.8476749168081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1156</v>
@@ -2159,19 +2159,19 @@
         <v>680257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668723</v>
+        <v>666509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>691868</v>
+        <v>690617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9279026090955346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9121692167374017</v>
+        <v>0.9091490291432415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9437394828854306</v>
+        <v>0.9420330257439559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1728</v>
@@ -2180,19 +2180,19 @@
         <v>1247059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1221740</v>
+        <v>1222561</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1267730</v>
+        <v>1267290</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8765184161486104</v>
+        <v>0.8765184161486106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8587230444944177</v>
+        <v>0.8593000040687986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8910474434409511</v>
+        <v>0.8907380472820772</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>173283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146262</v>
+        <v>148794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197308</v>
+        <v>200174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1653817980944818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1395925873274533</v>
+        <v>0.1420095715297156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1883111362496372</v>
+        <v>0.1910466175139587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -2305,19 +2305,19 @@
         <v>90061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77538</v>
+        <v>75823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107498</v>
+        <v>106983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08410372350402344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07240909346651943</v>
+        <v>0.07080703565401253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1003865284868892</v>
+        <v>0.09990551644708934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -2326,19 +2326,19 @@
         <v>263345</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>236578</v>
+        <v>235932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291683</v>
+        <v>295965</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1243003773120145</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1116664356329673</v>
+        <v>0.1113616926224612</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1376764089299864</v>
+        <v>0.1396975979913093</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>874493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>850468</v>
+        <v>847602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>901514</v>
+        <v>898982</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8346182019055182</v>
+        <v>0.8346182019055181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8116888637503628</v>
+        <v>0.8089533824860415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8604074126725468</v>
+        <v>0.8579904284702845</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1386</v>
@@ -2376,19 +2376,19 @@
         <v>980777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963340</v>
+        <v>963855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>993300</v>
+        <v>995015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9158962764959766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8996134715131112</v>
+        <v>0.9000944835529106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9275909065334808</v>
+        <v>0.9291929643459876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2156</v>
@@ -2397,19 +2397,19 @@
         <v>1855269</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1826931</v>
+        <v>1822649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1882036</v>
+        <v>1882682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8756996226879856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8623235910700138</v>
+        <v>0.8603024020086907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8883335643670329</v>
+        <v>0.8886383073775388</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>165441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143364</v>
+        <v>141844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191903</v>
+        <v>192705</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2063120491492879</v>
+        <v>0.2063120491492878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1787813318427179</v>
+        <v>0.1768861242154046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2393121748918492</v>
+        <v>0.2403115463686995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -2522,19 +2522,19 @@
         <v>83611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67592</v>
+        <v>70465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99298</v>
+        <v>102557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1029357821144212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08321530158049451</v>
+        <v>0.08675196702133166</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1222493393088889</v>
+        <v>0.1262614919406402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -2543,19 +2543,19 @@
         <v>249051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220543</v>
+        <v>220608</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278762</v>
+        <v>278898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1542920542175514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1366310046212406</v>
+        <v>0.1366711774457372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1726982503193002</v>
+        <v>0.1727828597674431</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>636454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609992</v>
+        <v>609190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>658531</v>
+        <v>660051</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7936879508507123</v>
+        <v>0.7936879508507122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7606878251081504</v>
+        <v>0.7596884536313006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8212186681572821</v>
+        <v>0.8231138757845955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>940</v>
@@ -2593,19 +2593,19 @@
         <v>728648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>712961</v>
+        <v>709702</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>744667</v>
+        <v>741794</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8970642178855788</v>
+        <v>0.8970642178855789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8777506606911114</v>
+        <v>0.8737385080593598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9167846984195056</v>
+        <v>0.9132480329786682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1448</v>
@@ -2614,19 +2614,19 @@
         <v>1365103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335392</v>
+        <v>1335256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1393611</v>
+        <v>1393546</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8457079457824485</v>
+        <v>0.8457079457824486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8273017496806996</v>
+        <v>0.8272171402325569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8633689953787591</v>
+        <v>0.8633288225542629</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>201857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178421</v>
+        <v>178324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230270</v>
+        <v>231012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2038834639472986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1802122802157451</v>
+        <v>0.1801144223668462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2325815874878339</v>
+        <v>0.2333307294745111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -2739,19 +2739,19 @@
         <v>140015</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120312</v>
+        <v>122601</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159758</v>
+        <v>161512</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1255552503701859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1078865952830649</v>
+        <v>0.1099393921258281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1432589696380401</v>
+        <v>0.1448313079359141</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>452</v>
@@ -2760,19 +2760,19 @@
         <v>341873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>312643</v>
+        <v>309131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>373968</v>
+        <v>374388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1623919571161991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1485076074361209</v>
+        <v>0.1468394179693351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1776372689569267</v>
+        <v>0.1778371384042185</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>788205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>759792</v>
+        <v>759050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>811641</v>
+        <v>811738</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7961165360527013</v>
+        <v>0.7961165360527014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7674184125121658</v>
+        <v>0.7666692705254886</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8197877197842549</v>
+        <v>0.8198855776331538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1353</v>
@@ -2810,19 +2810,19 @@
         <v>975155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>955412</v>
+        <v>953658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>994858</v>
+        <v>992569</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8744447496298141</v>
+        <v>0.8744447496298142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.85674103036196</v>
+        <v>0.8551686920640859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.892113404716935</v>
+        <v>0.8900606078741721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2113</v>
@@ -2831,19 +2831,19 @@
         <v>1763359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1731264</v>
+        <v>1730844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1792589</v>
+        <v>1796101</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8376080428838008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8223627310430734</v>
+        <v>0.8221628615957819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8514923925638792</v>
+        <v>0.8531605820306661</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>663408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -2956,19 +2956,19 @@
         <v>366543</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1289</v>
@@ -2977,19 +2977,19 @@
         <v>1029951</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2865953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2819467</v>
+        <v>2817174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2911906</v>
+        <v>2909533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8120317617206307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7988605599857089</v>
+        <v>0.7982108282996929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8250518135302651</v>
+        <v>0.8243794852869318</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4835</v>
@@ -3027,19 +3027,19 @@
         <v>3364837</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3330279</v>
+        <v>3331717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3395038</v>
+        <v>3391732</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9017674578873482</v>
+        <v>0.9017674578873481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8925060261441852</v>
+        <v>0.8928912956057744</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9098613528493423</v>
+        <v>0.9089752250221763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7445</v>
@@ -3048,19 +3048,19 @@
         <v>6230789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6178892</v>
+        <v>6174177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6287588</v>
+        <v>6288522</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8581479885791508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8510002560702562</v>
+        <v>0.8503509686758008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.865970733410679</v>
+        <v>0.8660992727093764</v>
       </c>
     </row>
     <row r="18">
